--- a/Excel Files/Salmonella_2008.xlsx
+++ b/Excel Files/Salmonella_2008.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joceline Lega\Box Sync\DyMSiM\One- or Two-Parabola Models\ms\EpiGro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joceline Lega\Documents\GitHub\EpiGro\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17130" yWindow="110" windowWidth="9500" windowHeight="12000" activeTab="2"/>
+    <workbookView xWindow="17130" yWindow="105" windowWidth="9495" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -224,6 +224,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -851,232 +852,232 @@
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>139</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>156</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>174</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>194</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>216</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>239</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>265</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>293</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>323</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>354</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>388</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>424</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>462</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>501</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>542</c:v>
+                  <c:v>547</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>583</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>626</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>669</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>712</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>755</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>798</c:v>
+                  <c:v>803</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>839</c:v>
+                  <c:v>844</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>880</c:v>
+                  <c:v>885</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>920</c:v>
+                  <c:v>924</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>957</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>994</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1028</c:v>
+                  <c:v>1031</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1060</c:v>
+                  <c:v>1063</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1090</c:v>
+                  <c:v>1093</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1118</c:v>
+                  <c:v>1121</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1144</c:v>
+                  <c:v>1147</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1168</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1191</c:v>
+                  <c:v>1192</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1211</c:v>
+                  <c:v>1212</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1229</c:v>
+                  <c:v>1231</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1246</c:v>
+                  <c:v>1247</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1261</c:v>
+                  <c:v>1262</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1275</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1287</c:v>
+                  <c:v>1288</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1298</c:v>
+                  <c:v>1299</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1308</c:v>
+                  <c:v>1309</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1317</c:v>
+                  <c:v>1318</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1325</c:v>
+                  <c:v>1326</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1332</c:v>
+                  <c:v>1333</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1338</c:v>
+                  <c:v>1339</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1344</c:v>
+                  <c:v>1345</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1349</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1353</c:v>
+                  <c:v>1354</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1357</c:v>
+                  <c:v>1358</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1361</c:v>
+                  <c:v>1362</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1364</c:v>
+                  <c:v>1365</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1367</c:v>
+                  <c:v>1368</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1369</c:v>
+                  <c:v>1370</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1371</c:v>
+                  <c:v>1372</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1373</c:v>
+                  <c:v>1374</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1375</c:v>
+                  <c:v>1376</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1376</c:v>
+                  <c:v>1377</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1378</c:v>
+                  <c:v>1379</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1379</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1380</c:v>
+                  <c:v>1381</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1381</c:v>
+                  <c:v>1382</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1382</c:v>
+                  <c:v>1383</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1382</c:v>
+                  <c:v>1384</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1383</c:v>
+                  <c:v>1384</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1384</c:v>
+                  <c:v>1385</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1384</c:v>
+                  <c:v>1385</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1384</c:v>
+                  <c:v>1386</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1385</c:v>
+                  <c:v>1386</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1385</c:v>
+                  <c:v>1386</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1385</c:v>
+                  <c:v>1387</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1386</c:v>
+                  <c:v>1387</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1386</c:v>
+                  <c:v>1387</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1386</c:v>
+                  <c:v>1387</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1386</c:v>
+                  <c:v>1388</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1386</c:v>
+                  <c:v>1388</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1387</c:v>
+                  <c:v>1388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,11 +1946,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1550259952"/>
-        <c:axId val="1550261040"/>
+        <c:axId val="-1796120992"/>
+        <c:axId val="-1796113376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1550259952"/>
+        <c:axId val="-1796120992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,12 +2007,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1550261040"/>
+        <c:crossAx val="-1796113376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1550261040"/>
+        <c:axId val="-1796113376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,7 +2063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1550259952"/>
+        <c:crossAx val="-1796120992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2076,6 +2077,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3026,11 +3028,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1550262672"/>
-        <c:axId val="1550253424"/>
+        <c:axId val="-1796108480"/>
+        <c:axId val="-1796106848"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1550262672"/>
+        <c:axId val="-1796108480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,14 +3042,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1550253424"/>
+        <c:crossAx val="-1796106848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1550253424"/>
+        <c:axId val="-1796106848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -3059,7 +3061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1550262672"/>
+        <c:crossAx val="-1796108480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3682,15 +3684,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3983,13 +3985,13 @@
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -4007,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4020,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4033,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4046,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4059,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4072,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4085,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4098,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4124,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4137,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4176,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4202,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4215,7 +4217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4228,7 +4230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4241,7 +4243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4254,7 +4256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4267,7 +4269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4280,7 +4282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4306,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4319,7 +4321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4332,7 +4334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4345,7 +4347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4358,7 +4360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4371,7 +4373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4384,7 +4386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4397,7 +4399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4410,7 +4412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4423,7 +4425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4436,7 +4438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4449,7 +4451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4462,7 +4464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4475,7 +4477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4488,7 +4490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4514,7 +4516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4527,7 +4529,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4540,7 +4542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4553,7 +4555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4579,7 +4581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4592,7 +4594,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4605,7 +4607,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4618,7 +4620,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4631,7 +4633,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4644,7 +4646,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4670,7 +4672,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4683,7 +4685,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4696,7 +4698,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4722,7 +4724,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4735,7 +4737,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -4748,7 +4750,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4774,7 +4776,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4800,7 +4802,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4813,7 +4815,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4826,7 +4828,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4839,7 +4841,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4852,7 +4854,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4865,7 +4867,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4878,7 +4880,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4891,7 +4893,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4904,7 +4906,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4917,7 +4919,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4930,7 +4932,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4943,7 +4945,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4956,7 +4958,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4969,7 +4971,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4982,7 +4984,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4995,7 +4997,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5008,7 +5010,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5021,7 +5023,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5034,7 +5036,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5047,7 +5049,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5060,7 +5062,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5073,7 +5075,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5086,7 +5088,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5099,7 +5101,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5125,7 +5127,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5138,7 +5140,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5151,7 +5153,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5164,7 +5166,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5177,7 +5179,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5190,7 +5192,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5203,7 +5205,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5216,7 +5218,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5229,7 +5231,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5242,7 +5244,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5255,7 +5257,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5268,7 +5270,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5281,7 +5283,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5294,7 +5296,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5307,7 +5309,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5320,7 +5322,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5333,7 +5335,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5346,7 +5348,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5359,7 +5361,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5372,7 +5374,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5398,7 +5400,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5411,7 +5413,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5424,7 +5426,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5437,7 +5439,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5450,7 +5452,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5463,7 +5465,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5476,7 +5478,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5489,7 +5491,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5502,7 +5504,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5515,7 +5517,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5528,7 +5530,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5541,7 +5543,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5554,7 +5556,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5567,7 +5569,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5580,7 +5582,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5593,7 +5595,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5606,7 +5608,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5619,7 +5621,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5632,7 +5634,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5645,7 +5647,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5658,7 +5660,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5671,7 +5673,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5684,7 +5686,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>130</v>
       </c>
@@ -5697,7 +5699,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5710,7 +5712,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5723,7 +5725,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5753,9 +5755,9 @@
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5766,7 +5768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5777,12 +5779,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1387.68</v>
+        <v>1389.096</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5794,12 +5796,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>43.24057803479333</v>
+        <v>43.049580023874483</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5811,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5828,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5845,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5879,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D9">
         <v>7</v>
       </c>
@@ -5890,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5907,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -5924,12 +5926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -5941,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D13">
         <v>11</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D14">
         <v>12</v>
       </c>
@@ -5963,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D15">
         <v>13</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D16">
         <v>14</v>
       </c>
@@ -5985,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D17">
         <v>15</v>
       </c>
@@ -5996,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D18">
         <v>16</v>
       </c>
@@ -6007,7 +6009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>17</v>
       </c>
@@ -6018,7 +6020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>18</v>
       </c>
@@ -6029,7 +6031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>19</v>
       </c>
@@ -6040,7 +6042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>20</v>
       </c>
@@ -6051,7 +6053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>21</v>
       </c>
@@ -6062,7 +6064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>22</v>
       </c>
@@ -6073,7 +6075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>23</v>
       </c>
@@ -6084,7 +6086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>24</v>
       </c>
@@ -6095,7 +6097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>25</v>
       </c>
@@ -6106,7 +6108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>26</v>
       </c>
@@ -6117,7 +6119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>27</v>
       </c>
@@ -6128,7 +6130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>28</v>
       </c>
@@ -6139,7 +6141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>29</v>
       </c>
@@ -6150,7 +6152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>30</v>
       </c>
@@ -6161,7 +6163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>31</v>
       </c>
@@ -6172,7 +6174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>32</v>
       </c>
@@ -6183,7 +6185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>33</v>
       </c>
@@ -6194,7 +6196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>34</v>
       </c>
@@ -6205,7 +6207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>35</v>
       </c>
@@ -6216,7 +6218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>36</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>37</v>
       </c>
@@ -6238,7 +6240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>38</v>
       </c>
@@ -6249,7 +6251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>39</v>
       </c>
@@ -6260,7 +6262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>40</v>
       </c>
@@ -6271,7 +6273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>41</v>
       </c>
@@ -6282,7 +6284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>42</v>
       </c>
@@ -6293,7 +6295,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>43</v>
       </c>
@@ -6304,7 +6306,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>44</v>
       </c>
@@ -6315,7 +6317,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>45</v>
       </c>
@@ -6326,7 +6328,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>46</v>
       </c>
@@ -6337,7 +6339,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>47</v>
       </c>
@@ -6348,7 +6350,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>48</v>
       </c>
@@ -6356,10 +6358,10 @@
         <v>141</v>
       </c>
       <c r="F50">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>49</v>
       </c>
@@ -6367,10 +6369,10 @@
         <v>165</v>
       </c>
       <c r="F51">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>50</v>
       </c>
@@ -6378,10 +6380,10 @@
         <v>183</v>
       </c>
       <c r="F52">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>51</v>
       </c>
@@ -6389,10 +6391,10 @@
         <v>205</v>
       </c>
       <c r="F53">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>52</v>
       </c>
@@ -6400,10 +6402,10 @@
         <v>229</v>
       </c>
       <c r="F54">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>53</v>
       </c>
@@ -6411,10 +6413,10 @@
         <v>272</v>
       </c>
       <c r="F55">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>54</v>
       </c>
@@ -6422,10 +6424,10 @@
         <v>307</v>
       </c>
       <c r="F56">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>55</v>
       </c>
@@ -6433,10 +6435,10 @@
         <v>347</v>
       </c>
       <c r="F57">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>56</v>
       </c>
@@ -6444,10 +6446,10 @@
         <v>376</v>
       </c>
       <c r="F58">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59">
         <v>57</v>
       </c>
@@ -6455,10 +6457,10 @@
         <v>423</v>
       </c>
       <c r="F59">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>58</v>
       </c>
@@ -6466,10 +6468,10 @@
         <v>451</v>
       </c>
       <c r="F60">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>59</v>
       </c>
@@ -6477,10 +6479,10 @@
         <v>479</v>
       </c>
       <c r="F61">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>60</v>
       </c>
@@ -6488,10 +6490,10 @@
         <v>516</v>
       </c>
       <c r="F62">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>61</v>
       </c>
@@ -6499,10 +6501,10 @@
         <v>562</v>
       </c>
       <c r="F63">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>62</v>
       </c>
@@ -6510,10 +6512,10 @@
         <v>605</v>
       </c>
       <c r="F64">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65">
         <v>63</v>
       </c>
@@ -6521,10 +6523,10 @@
         <v>640</v>
       </c>
       <c r="F65">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.35">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>64</v>
       </c>
@@ -6532,10 +6534,10 @@
         <v>681</v>
       </c>
       <c r="F66">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.35">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>65</v>
       </c>
@@ -6543,10 +6545,10 @@
         <v>709</v>
       </c>
       <c r="F67">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.35">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>66</v>
       </c>
@@ -6554,10 +6556,10 @@
         <v>739</v>
       </c>
       <c r="F68">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.35">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>67</v>
       </c>
@@ -6565,10 +6567,10 @@
         <v>778</v>
       </c>
       <c r="F69">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.35">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>68</v>
       </c>
@@ -6576,10 +6578,10 @@
         <v>818</v>
       </c>
       <c r="F70">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.35">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>69</v>
       </c>
@@ -6587,10 +6589,10 @@
         <v>860</v>
       </c>
       <c r="F71">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.35">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>70</v>
       </c>
@@ -6598,10 +6600,10 @@
         <v>905</v>
       </c>
       <c r="F72">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.35">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>71</v>
       </c>
@@ -6609,10 +6611,10 @@
         <v>939</v>
       </c>
       <c r="F73">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.35">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>72</v>
       </c>
@@ -6620,10 +6622,10 @@
         <v>962</v>
       </c>
       <c r="F74">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.35">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>73</v>
       </c>
@@ -6631,10 +6633,10 @@
         <v>984</v>
       </c>
       <c r="F75">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.35">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>74</v>
       </c>
@@ -6642,10 +6644,10 @@
         <v>1010</v>
       </c>
       <c r="F76">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>75</v>
       </c>
@@ -6653,10 +6655,10 @@
         <v>1027</v>
       </c>
       <c r="F77">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>76</v>
       </c>
@@ -6664,10 +6666,10 @@
         <v>1056</v>
       </c>
       <c r="F78">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>77</v>
       </c>
@@ -6675,10 +6677,10 @@
         <v>1083</v>
       </c>
       <c r="F79">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>78</v>
       </c>
@@ -6686,10 +6688,10 @@
         <v>1101</v>
       </c>
       <c r="F80">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>79</v>
       </c>
@@ -6697,10 +6699,10 @@
         <v>1127</v>
       </c>
       <c r="F81">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>80</v>
       </c>
@@ -6708,10 +6710,10 @@
         <v>1149</v>
       </c>
       <c r="F82">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>81</v>
       </c>
@@ -6719,10 +6721,10 @@
         <v>1174</v>
       </c>
       <c r="F83">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>82</v>
       </c>
@@ -6730,10 +6732,10 @@
         <v>1195</v>
       </c>
       <c r="F84">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D85">
         <v>83</v>
       </c>
@@ -6741,10 +6743,10 @@
         <v>1210</v>
       </c>
       <c r="F85">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>84</v>
       </c>
@@ -6752,10 +6754,10 @@
         <v>1222</v>
       </c>
       <c r="F86">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>85</v>
       </c>
@@ -6763,10 +6765,10 @@
         <v>1240</v>
       </c>
       <c r="F87">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>86</v>
       </c>
@@ -6774,10 +6776,10 @@
         <v>1251</v>
       </c>
       <c r="F88">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>87</v>
       </c>
@@ -6785,10 +6787,10 @@
         <v>1256</v>
       </c>
       <c r="F89">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>88</v>
       </c>
@@ -6796,10 +6798,10 @@
         <v>1261</v>
       </c>
       <c r="F90">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>89</v>
       </c>
@@ -6807,10 +6809,10 @@
         <v>1275</v>
       </c>
       <c r="F91">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>90</v>
       </c>
@@ -6818,10 +6820,10 @@
         <v>1291</v>
       </c>
       <c r="F92">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>91</v>
       </c>
@@ -6829,10 +6831,10 @@
         <v>1296</v>
       </c>
       <c r="F93">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>92</v>
       </c>
@@ -6840,10 +6842,10 @@
         <v>1311</v>
       </c>
       <c r="F94">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>93</v>
       </c>
@@ -6851,10 +6853,10 @@
         <v>1319</v>
       </c>
       <c r="F95">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>94</v>
       </c>
@@ -6862,10 +6864,10 @@
         <v>1325</v>
       </c>
       <c r="F96">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>95</v>
       </c>
@@ -6873,10 +6875,10 @@
         <v>1333</v>
       </c>
       <c r="F97">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>96</v>
       </c>
@@ -6884,10 +6886,10 @@
         <v>1342</v>
       </c>
       <c r="F98">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>97</v>
       </c>
@@ -6895,10 +6897,10 @@
         <v>1348</v>
       </c>
       <c r="F99">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>98</v>
       </c>
@@ -6906,10 +6908,10 @@
         <v>1355</v>
       </c>
       <c r="F100">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>99</v>
       </c>
@@ -6917,10 +6919,10 @@
         <v>1357</v>
       </c>
       <c r="F101">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>100</v>
       </c>
@@ -6928,10 +6930,10 @@
         <v>1359</v>
       </c>
       <c r="F102">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>101</v>
       </c>
@@ -6939,10 +6941,10 @@
         <v>1363</v>
       </c>
       <c r="F103">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>102</v>
       </c>
@@ -6950,10 +6952,10 @@
         <v>1364</v>
       </c>
       <c r="F104">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105">
         <v>103</v>
       </c>
@@ -6961,10 +6963,10 @@
         <v>1367</v>
       </c>
       <c r="F105">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D106">
         <v>104</v>
       </c>
@@ -6972,10 +6974,10 @@
         <v>1369</v>
       </c>
       <c r="F106">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107">
         <v>105</v>
       </c>
@@ -6983,10 +6985,10 @@
         <v>1371</v>
       </c>
       <c r="F107">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D108">
         <v>106</v>
       </c>
@@ -6994,10 +6996,10 @@
         <v>1372</v>
       </c>
       <c r="F108">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>107</v>
       </c>
@@ -7005,10 +7007,10 @@
         <v>1373</v>
       </c>
       <c r="F109">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D110">
         <v>108</v>
       </c>
@@ -7016,10 +7018,10 @@
         <v>1376</v>
       </c>
       <c r="F110">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D111">
         <v>109</v>
       </c>
@@ -7027,10 +7029,10 @@
         <v>1380</v>
       </c>
       <c r="F111">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>110</v>
       </c>
@@ -7038,10 +7040,10 @@
         <v>1386</v>
       </c>
       <c r="F112">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113">
         <v>111</v>
       </c>
@@ -7049,10 +7051,10 @@
         <v>1387</v>
       </c>
       <c r="F113">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>112</v>
       </c>
@@ -7060,10 +7062,10 @@
         <v>1389</v>
       </c>
       <c r="F114">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>113</v>
       </c>
@@ -7071,10 +7073,10 @@
         <v>1392</v>
       </c>
       <c r="F115">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>114</v>
       </c>
@@ -7082,10 +7084,10 @@
         <v>1393</v>
       </c>
       <c r="F116">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>115</v>
       </c>
@@ -7093,10 +7095,10 @@
         <v>1398</v>
       </c>
       <c r="F117">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D118">
         <v>116</v>
       </c>
@@ -7104,10 +7106,10 @@
         <v>1398</v>
       </c>
       <c r="F118">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>117</v>
       </c>
@@ -7115,10 +7117,10 @@
         <v>1400</v>
       </c>
       <c r="F119">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>118</v>
       </c>
@@ -7126,10 +7128,10 @@
         <v>1401</v>
       </c>
       <c r="F120">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>119</v>
       </c>
@@ -7137,10 +7139,10 @@
         <v>1404</v>
       </c>
       <c r="F121">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>120</v>
       </c>
@@ -7148,10 +7150,10 @@
         <v>1406</v>
       </c>
       <c r="F122">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>121</v>
       </c>
@@ -7159,10 +7161,10 @@
         <v>1407</v>
       </c>
       <c r="F123">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>122</v>
       </c>
@@ -7170,10 +7172,10 @@
         <v>1407</v>
       </c>
       <c r="F124">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>123</v>
       </c>
@@ -7181,10 +7183,10 @@
         <v>1408</v>
       </c>
       <c r="F125">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>124</v>
       </c>
@@ -7192,7 +7194,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>125</v>
       </c>
@@ -7200,7 +7202,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>126</v>
       </c>
@@ -7208,7 +7210,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D129">
         <v>127</v>
       </c>
@@ -7216,7 +7218,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D130">
         <v>128</v>
       </c>
@@ -7224,7 +7226,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D131">
         <v>129</v>
       </c>
@@ -7232,7 +7234,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D132">
         <v>130</v>
       </c>
@@ -7240,7 +7242,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D133">
         <v>131</v>
       </c>
@@ -7248,7 +7250,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D134">
         <v>132</v>
       </c>
@@ -7256,7 +7258,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D135">
         <v>133</v>
       </c>
@@ -7276,17 +7278,17 @@
   <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>42095</v>
       </c>
@@ -7300,7 +7302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>42096</v>
       </c>
@@ -7312,7 +7314,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>42097</v>
       </c>
@@ -7320,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>42098</v>
       </c>
@@ -7328,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>42099</v>
       </c>
@@ -7336,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>42100</v>
       </c>
@@ -7344,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>42101</v>
       </c>
@@ -7352,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>42102</v>
       </c>
@@ -7360,7 +7362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>42103</v>
       </c>
@@ -7368,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>42104</v>
       </c>
@@ -7376,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>42105</v>
       </c>
@@ -7384,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>42106</v>
       </c>
@@ -7392,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>42107</v>
       </c>
@@ -7400,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>42108</v>
       </c>
@@ -7408,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>42109</v>
       </c>
@@ -7416,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>42110</v>
       </c>
@@ -7424,7 +7426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>42111</v>
       </c>
@@ -7432,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>42112</v>
       </c>
@@ -7440,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>42113</v>
       </c>
@@ -7448,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>42114</v>
       </c>
@@ -7456,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>42115</v>
       </c>
@@ -7464,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>42116</v>
       </c>
@@ -7472,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>42117</v>
       </c>
@@ -7480,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>42118</v>
       </c>
@@ -7488,7 +7490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>42119</v>
       </c>
@@ -7496,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>42120</v>
       </c>
@@ -7504,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>42121</v>
       </c>
@@ -7512,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>42122</v>
       </c>
@@ -7520,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>42123</v>
       </c>
@@ -7528,7 +7530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>42124</v>
       </c>
@@ -7536,7 +7538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>42125</v>
       </c>
@@ -7544,7 +7546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>42126</v>
       </c>
@@ -7552,7 +7554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>42127</v>
       </c>
@@ -7560,7 +7562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>42128</v>
       </c>
@@ -7568,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>42129</v>
       </c>
@@ -7576,7 +7578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>42130</v>
       </c>
@@ -7584,7 +7586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>42131</v>
       </c>
@@ -7592,7 +7594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>42132</v>
       </c>
@@ -7600,7 +7602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>42133</v>
       </c>
@@ -7608,7 +7610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>42134</v>
       </c>
@@ -7616,7 +7618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>42135</v>
       </c>
@@ -7624,7 +7626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42136</v>
       </c>
@@ -7632,7 +7634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42137</v>
       </c>
@@ -7640,7 +7642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>42138</v>
       </c>
@@ -7648,7 +7650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42139</v>
       </c>
@@ -7656,7 +7658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>42140</v>
       </c>
@@ -7664,7 +7666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>42141</v>
       </c>
@@ -7672,7 +7674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>42142</v>
       </c>
@@ -7680,7 +7682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>42143</v>
       </c>
@@ -7688,7 +7690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>42144</v>
       </c>
@@ -7696,7 +7698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>42145</v>
       </c>
@@ -7704,7 +7706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>42146</v>
       </c>
@@ -7712,7 +7714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>42147</v>
       </c>
@@ -7720,7 +7722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>42148</v>
       </c>
@@ -7728,7 +7730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>42149</v>
       </c>
@@ -7736,7 +7738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>42150</v>
       </c>
@@ -7744,7 +7746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>42151</v>
       </c>
@@ -7752,7 +7754,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>42152</v>
       </c>
@@ -7760,7 +7762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>42153</v>
       </c>
@@ -7768,7 +7770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>42154</v>
       </c>
@@ -7776,7 +7778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>42155</v>
       </c>
@@ -7784,7 +7786,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>42156</v>
       </c>
@@ -7792,7 +7794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>42157</v>
       </c>
@@ -7800,7 +7802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>42158</v>
       </c>
@@ -7808,7 +7810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>42159</v>
       </c>
@@ -7816,7 +7818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>42160</v>
       </c>
@@ -7824,7 +7826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>42161</v>
       </c>
@@ -7832,7 +7834,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>42162</v>
       </c>
@@ -7840,7 +7842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>42163</v>
       </c>
@@ -7848,7 +7850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>42164</v>
       </c>
@@ -7856,7 +7858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>42165</v>
       </c>
@@ -7864,7 +7866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>42166</v>
       </c>
@@ -7872,7 +7874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>42167</v>
       </c>
@@ -7880,7 +7882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>42168</v>
       </c>
@@ -7888,7 +7890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>42169</v>
       </c>
@@ -7896,7 +7898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>42170</v>
       </c>
@@ -7904,7 +7906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>42171</v>
       </c>
@@ -7912,7 +7914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>42172</v>
       </c>
@@ -7920,7 +7922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>42173</v>
       </c>
@@ -7928,7 +7930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>42174</v>
       </c>
@@ -7936,7 +7938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>42175</v>
       </c>
@@ -7944,7 +7946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>42176</v>
       </c>
@@ -7952,7 +7954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>42177</v>
       </c>
@@ -7960,7 +7962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>42178</v>
       </c>
@@ -7968,7 +7970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>42179</v>
       </c>
@@ -7976,7 +7978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>42180</v>
       </c>
@@ -7984,7 +7986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>42181</v>
       </c>
@@ -7992,7 +7994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>42182</v>
       </c>
@@ -8000,7 +8002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>42183</v>
       </c>
@@ -8008,7 +8010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>42184</v>
       </c>
@@ -8016,7 +8018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>42185</v>
       </c>
@@ -8024,7 +8026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>42186</v>
       </c>
@@ -8032,7 +8034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>42187</v>
       </c>
@@ -8040,7 +8042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>42188</v>
       </c>
@@ -8048,7 +8050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>42189</v>
       </c>
@@ -8056,7 +8058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>42190</v>
       </c>
@@ -8064,7 +8066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>42191</v>
       </c>
@@ -8072,7 +8074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>42192</v>
       </c>
@@ -8080,7 +8082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>42193</v>
       </c>
@@ -8088,7 +8090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>42194</v>
       </c>
@@ -8096,7 +8098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>42195</v>
       </c>
@@ -8104,7 +8106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>42196</v>
       </c>
@@ -8112,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>42197</v>
       </c>
@@ -8120,7 +8122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>42198</v>
       </c>
@@ -8128,7 +8130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>42199</v>
       </c>
@@ -8136,7 +8138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>42200</v>
       </c>
@@ -8144,7 +8146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>42201</v>
       </c>
@@ -8152,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>42202</v>
       </c>
@@ -8160,7 +8162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>42203</v>
       </c>
@@ -8168,7 +8170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>42204</v>
       </c>
@@ -8176,7 +8178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>42205</v>
       </c>
@@ -8184,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>42206</v>
       </c>
@@ -8192,7 +8194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>42207</v>
       </c>
@@ -8200,7 +8202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>42208</v>
       </c>
@@ -8208,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>42209</v>
       </c>
@@ -8216,7 +8218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>42210</v>
       </c>
@@ -8224,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>42211</v>
       </c>
@@ -8232,7 +8234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>42212</v>
       </c>
@@ -8240,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>42213</v>
       </c>
@@ -8248,7 +8250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>42214</v>
       </c>
@@ -8256,7 +8258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>42215</v>
       </c>
@@ -8264,7 +8266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>42216</v>
       </c>
@@ -8272,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>42217</v>
       </c>
@@ -8280,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>42218</v>
       </c>
@@ -8288,7 +8290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>42219</v>
       </c>
@@ -8296,7 +8298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>42220</v>
       </c>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>42221</v>
       </c>
@@ -8312,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>42222</v>
       </c>
@@ -8320,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>42223</v>
       </c>
@@ -8328,7 +8330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>42224</v>
       </c>
@@ -8336,7 +8338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>42225</v>
       </c>
@@ -8344,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>42226</v>
       </c>
@@ -8352,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>42227</v>
       </c>
@@ -8360,102 +8362,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>42228</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>42229</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>42230</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>42231</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>42232</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>42233</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>42234</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>42235</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>42236</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>42237</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>42238</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>42239</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>42240</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>42241</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>42242</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>42243</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>42244</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>42245</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>42246</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>42247</v>
       </c>
